--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="838">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="838">
   <si>
     <t>ANSPs</t>
   </si>
@@ -32049,46 +32049,46 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>89</v>
@@ -32097,7 +32097,7 @@
         <v>89</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>89</v>
@@ -32124,7 +32124,7 @@
         <v>89</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
@@ -32142,7 +32142,7 @@
         <v>89</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="AH14" s="5" t="s">
         <v>89</v>
@@ -32157,7 +32157,7 @@
         <v>89</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15">
@@ -32787,10 +32787,10 @@
         <v>89</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>89</v>
@@ -32799,10 +32799,10 @@
         <v>89</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>89</v>
@@ -32826,7 +32826,7 @@
         <v>89</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>89</v>
@@ -32841,7 +32841,7 @@
         <v>89</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>89</v>
@@ -32983,7 +32983,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>89</v>
@@ -32995,7 +32995,7 @@
         <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>89</v>
@@ -33028,7 +33028,7 @@
         <v>89</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>89</v>
@@ -33037,7 +33037,7 @@
         <v>89</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>89</v>
@@ -33052,7 +33052,7 @@
         <v>89</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>89</v>
@@ -33067,7 +33067,7 @@
         <v>89</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>89</v>
@@ -33082,7 +33082,7 @@
         <v>89</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>89</v>
@@ -33096,13 +33096,13 @@
         <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>89</v>
@@ -33144,7 +33144,7 @@
         <v>89</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>89</v>
@@ -33156,7 +33156,7 @@
         <v>89</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>89</v>
@@ -33355,7 +33355,7 @@
         <v>89</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>89</v>
@@ -33367,13 +33367,13 @@
         <v>89</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>89</v>
@@ -33382,7 +33382,7 @@
         <v>89</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>89</v>
@@ -33394,7 +33394,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33406,7 +33406,7 @@
         <v>89</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="AD25" s="5" t="s">
         <v>89</v>
@@ -33421,7 +33421,7 @@
         <v>89</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
@@ -33430,10 +33430,10 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26">
@@ -33441,13 +33441,13 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>89</v>
@@ -33459,7 +33459,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>89</v>
@@ -33513,10 +33513,10 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>89</v>
@@ -33531,7 +33531,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33673,64 +33673,64 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
@@ -33739,7 +33739,7 @@
         <v>89</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33751,34 +33751,34 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -34024,13 +34024,13 @@
         <v>89</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>89</v>
@@ -34072,7 +34072,7 @@
         <v>89</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>89</v>
@@ -34108,7 +34108,7 @@
         <v>89</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AF31" s="5" t="s">
         <v>89</v>
@@ -34117,7 +34117,7 @@
         <v>89</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>89</v>
@@ -34126,7 +34126,7 @@
         <v>89</v>
       </c>
       <c r="AK31" s="5" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="AL31" s="5" t="s">
         <v>89</v>
@@ -34703,7 +34703,7 @@
         <v>89</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AK36" s="5" t="s">
         <v>89</v>
@@ -34949,115 +34949,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="40">
@@ -35065,115 +35065,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
@@ -35181,115 +35181,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>127</v>
+        <v>359</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>127</v>
+        <v>426</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>127</v>
+        <v>458</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>127</v>
+        <v>488</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>127</v>
+        <v>509</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>127</v>
+        <v>547</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>127</v>
+        <v>582</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>127</v>
+        <v>607</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>127</v>
+        <v>630</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>127</v>
+        <v>657</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>127</v>
+        <v>689</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>127</v>
+        <v>718</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>127</v>
+        <v>748</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>127</v>
+        <v>776</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>127</v>
+        <v>795</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>127</v>
+        <v>826</v>
       </c>
     </row>
     <row r="42">
